--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il16-Cd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il16-Cd4.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.528209</v>
+        <v>3.323836333333334</v>
       </c>
       <c r="H2">
-        <v>7.584626999999999</v>
+        <v>9.971509000000001</v>
       </c>
       <c r="I2">
-        <v>0.07797459996163481</v>
+        <v>0.1301205485574112</v>
       </c>
       <c r="J2">
-        <v>0.07797459996163481</v>
+        <v>0.1301205485574111</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.44358</v>
+        <v>1.299166</v>
       </c>
       <c r="N2">
-        <v>1.33074</v>
+        <v>3.897498000000001</v>
       </c>
       <c r="O2">
-        <v>0.02037110983696637</v>
+        <v>0.4012436242381129</v>
       </c>
       <c r="P2">
-        <v>0.02037110983696637</v>
+        <v>0.4012436242381128</v>
       </c>
       <c r="Q2">
-        <v>1.12146294822</v>
+        <v>4.318215153831335</v>
       </c>
       <c r="R2">
-        <v>10.09316653398</v>
+        <v>38.86393638448201</v>
       </c>
       <c r="S2">
-        <v>0.001588429140311976</v>
+        <v>0.05221004049102702</v>
       </c>
       <c r="T2">
-        <v>0.001588429140311977</v>
+        <v>0.052210040491027</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.528209</v>
+        <v>3.323836333333334</v>
       </c>
       <c r="H3">
-        <v>7.584626999999999</v>
+        <v>9.971509000000001</v>
       </c>
       <c r="I3">
-        <v>0.07797459996163481</v>
+        <v>0.1301205485574112</v>
       </c>
       <c r="J3">
-        <v>0.07797459996163481</v>
+        <v>0.1301205485574111</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.756006</v>
       </c>
       <c r="O3">
-        <v>0.04218923376267215</v>
+        <v>0.2837281342702381</v>
       </c>
       <c r="P3">
-        <v>0.04218923376267215</v>
+        <v>0.2837281342702381</v>
       </c>
       <c r="Q3">
-        <v>2.322586391084667</v>
+        <v>3.053504292561556</v>
       </c>
       <c r="R3">
-        <v>20.903277519762</v>
+        <v>27.481538633054</v>
       </c>
       <c r="S3">
-        <v>0.003289688625332258</v>
+        <v>0.0369188604724142</v>
       </c>
       <c r="T3">
-        <v>0.003289688625332258</v>
+        <v>0.03691886047241418</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.528209</v>
+        <v>3.323836333333334</v>
       </c>
       <c r="H4">
-        <v>7.584626999999999</v>
+        <v>9.971509000000001</v>
       </c>
       <c r="I4">
-        <v>0.07797459996163481</v>
+        <v>0.1301205485574112</v>
       </c>
       <c r="J4">
-        <v>0.07797459996163481</v>
+        <v>0.1301205485574111</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>6.947936666666666</v>
+        <v>0.09379033333333332</v>
       </c>
       <c r="N4">
-        <v>20.84381</v>
+        <v>0.281371</v>
       </c>
       <c r="O4">
-        <v>0.3190792663712355</v>
+        <v>0.02896687048858063</v>
       </c>
       <c r="P4">
-        <v>0.3190792663712355</v>
+        <v>0.02896687048858063</v>
       </c>
       <c r="Q4">
-        <v>17.56583601209666</v>
+        <v>0.3117437176487778</v>
       </c>
       <c r="R4">
-        <v>158.09252410887</v>
+        <v>2.805693458839</v>
       </c>
       <c r="S4">
-        <v>0.024880078151349</v>
+        <v>0.003769185077965597</v>
       </c>
       <c r="T4">
-        <v>0.024880078151349</v>
+        <v>0.003769185077965596</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.528209</v>
+        <v>3.323836333333334</v>
       </c>
       <c r="H5">
-        <v>7.584626999999999</v>
+        <v>9.971509000000001</v>
       </c>
       <c r="I5">
-        <v>0.07797459996163481</v>
+        <v>0.1301205485574112</v>
       </c>
       <c r="J5">
-        <v>0.07797459996163481</v>
+        <v>0.1301205485574111</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4945076666666667</v>
+        <v>0.5395386666666667</v>
       </c>
       <c r="N5">
-        <v>1.483523</v>
+        <v>1.618616</v>
       </c>
       <c r="O5">
-        <v>0.02270992829453226</v>
+        <v>0.1666349412083848</v>
       </c>
       <c r="P5">
-        <v>0.02270992829453226</v>
+        <v>0.1666349412083848</v>
       </c>
       <c r="Q5">
-        <v>1.250218733435667</v>
+        <v>1.793338223504889</v>
       </c>
       <c r="R5">
-        <v>11.251968600921</v>
+        <v>16.140044011544</v>
       </c>
       <c r="S5">
-        <v>0.001770797573923565</v>
+        <v>0.02168262995886699</v>
       </c>
       <c r="T5">
-        <v>0.001770797573923565</v>
+        <v>0.02168262995886698</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.528209</v>
+        <v>3.323836333333334</v>
       </c>
       <c r="H6">
-        <v>7.584626999999999</v>
+        <v>9.971509000000001</v>
       </c>
       <c r="I6">
-        <v>0.07797459996163481</v>
+        <v>0.1301205485574112</v>
       </c>
       <c r="J6">
-        <v>0.07797459996163481</v>
+        <v>0.1301205485574111</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.2090703333333333</v>
+        <v>0.08981299999999999</v>
       </c>
       <c r="N6">
-        <v>0.627211</v>
+        <v>0.269439</v>
       </c>
       <c r="O6">
-        <v>0.009601412877010921</v>
+        <v>0.02773848270636518</v>
       </c>
       <c r="P6">
-        <v>0.009601412877010922</v>
+        <v>0.02773848270636518</v>
       </c>
       <c r="Q6">
-        <v>0.5285734983663333</v>
+        <v>0.2985237126056667</v>
       </c>
       <c r="R6">
-        <v>4.757161485296999</v>
+        <v>2.686713413451</v>
       </c>
       <c r="S6">
-        <v>0.0007486663281514157</v>
+        <v>0.0036093465859025</v>
       </c>
       <c r="T6">
-        <v>0.0007486663281514158</v>
+        <v>0.0036093465859025</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.528209</v>
+        <v>3.323836333333334</v>
       </c>
       <c r="H7">
-        <v>7.584626999999999</v>
+        <v>9.971509000000001</v>
       </c>
       <c r="I7">
-        <v>0.07797459996163481</v>
+        <v>0.1301205485574112</v>
       </c>
       <c r="J7">
-        <v>0.07797459996163481</v>
+        <v>0.1301205485574111</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>12.76119166666667</v>
+        <v>0.2968716666666666</v>
       </c>
       <c r="N7">
-        <v>38.283575</v>
+        <v>0.8906149999999999</v>
       </c>
       <c r="O7">
-        <v>0.5860490488575828</v>
+        <v>0.09168794708831841</v>
       </c>
       <c r="P7">
-        <v>0.5860490488575829</v>
+        <v>0.0916879470883184</v>
       </c>
       <c r="Q7">
-        <v>32.26295962239167</v>
+        <v>0.986752832003889</v>
       </c>
       <c r="R7">
-        <v>290.366636601525</v>
+        <v>8.880775488035001</v>
       </c>
       <c r="S7">
-        <v>0.04569694014256659</v>
+        <v>0.01193048597123488</v>
       </c>
       <c r="T7">
-        <v>0.0456969401425666</v>
+        <v>0.01193048597123488</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>4.032266</v>
       </c>
       <c r="I8">
-        <v>0.04145415829794943</v>
+        <v>0.05261798027253429</v>
       </c>
       <c r="J8">
-        <v>0.04145415829794944</v>
+        <v>0.05261798027253427</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.44358</v>
+        <v>1.299166</v>
       </c>
       <c r="N8">
-        <v>1.33074</v>
+        <v>3.897498000000001</v>
       </c>
       <c r="O8">
-        <v>0.02037110983696637</v>
+        <v>0.4012436242381129</v>
       </c>
       <c r="P8">
-        <v>0.02037110983696637</v>
+        <v>0.4012436242381128</v>
       </c>
       <c r="Q8">
-        <v>0.59621085076</v>
+        <v>1.746194296718667</v>
       </c>
       <c r="R8">
-        <v>5.36589765684</v>
+        <v>15.715748670468</v>
       </c>
       <c r="S8">
-        <v>0.0008444672118865188</v>
+        <v>0.02111262910464119</v>
       </c>
       <c r="T8">
-        <v>0.0008444672118865191</v>
+        <v>0.02111262910464118</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>4.032266</v>
       </c>
       <c r="I9">
-        <v>0.04145415829794943</v>
+        <v>0.05261798027253429</v>
       </c>
       <c r="J9">
-        <v>0.04145415829794944</v>
+        <v>0.05261798027253427</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>2.756006</v>
       </c>
       <c r="O9">
-        <v>0.04218923376267215</v>
+        <v>0.2837281342702381</v>
       </c>
       <c r="P9">
-        <v>0.04218923376267215</v>
+        <v>0.2837281342702381</v>
       </c>
       <c r="Q9">
         <v>1.234772143288444</v>
@@ -1013,10 +1013,10 @@
         <v>11.112949289596</v>
       </c>
       <c r="S9">
-        <v>0.001748919174867004</v>
+        <v>0.01492920137179435</v>
       </c>
       <c r="T9">
-        <v>0.001748919174867005</v>
+        <v>0.01492920137179434</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>4.032266</v>
       </c>
       <c r="I10">
-        <v>0.04145415829794943</v>
+        <v>0.05261798027253429</v>
       </c>
       <c r="J10">
-        <v>0.04145415829794944</v>
+        <v>0.05261798027253427</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>6.947936666666666</v>
+        <v>0.09379033333333332</v>
       </c>
       <c r="N10">
-        <v>20.84381</v>
+        <v>0.281371</v>
       </c>
       <c r="O10">
-        <v>0.3190792663712355</v>
+        <v>0.02896687048858063</v>
       </c>
       <c r="P10">
-        <v>0.3190792663712355</v>
+        <v>0.02896687048858063</v>
       </c>
       <c r="Q10">
-        <v>9.338642930384443</v>
+        <v>0.1260625240762222</v>
       </c>
       <c r="R10">
-        <v>84.04778637345999</v>
+        <v>1.134562716686</v>
       </c>
       <c r="S10">
-        <v>0.01322716241774677</v>
+        <v>0.001524178219925192</v>
       </c>
       <c r="T10">
-        <v>0.01322716241774677</v>
+        <v>0.001524178219925191</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,40 +1107,40 @@
         <v>4.032266</v>
       </c>
       <c r="I11">
-        <v>0.04145415829794943</v>
+        <v>0.05261798027253429</v>
       </c>
       <c r="J11">
-        <v>0.04145415829794944</v>
+        <v>0.05261798027253427</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4945076666666667</v>
+        <v>0.5395386666666667</v>
       </c>
       <c r="N11">
-        <v>1.483523</v>
+        <v>1.618616</v>
       </c>
       <c r="O11">
-        <v>0.02270992829453226</v>
+        <v>0.1666349412083848</v>
       </c>
       <c r="P11">
-        <v>0.02270992829453226</v>
+        <v>0.1666349412083848</v>
       </c>
       <c r="Q11">
-        <v>0.6646621503464446</v>
+        <v>0.7251878070951112</v>
       </c>
       <c r="R11">
-        <v>5.981959353118</v>
+        <v>6.526690263856</v>
       </c>
       <c r="S11">
-        <v>0.0009414209624566212</v>
+        <v>0.008767994049217702</v>
       </c>
       <c r="T11">
-        <v>0.0009414209624566214</v>
+        <v>0.008767994049217699</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>4.032266</v>
       </c>
       <c r="I12">
-        <v>0.04145415829794943</v>
+        <v>0.05261798027253429</v>
       </c>
       <c r="J12">
-        <v>0.04145415829794944</v>
+        <v>0.05261798027253427</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.2090703333333333</v>
+        <v>0.08981299999999999</v>
       </c>
       <c r="N12">
-        <v>0.627211</v>
+        <v>0.269439</v>
       </c>
       <c r="O12">
-        <v>0.009601412877010921</v>
+        <v>0.02773848270636518</v>
       </c>
       <c r="P12">
-        <v>0.009601412877010922</v>
+        <v>0.02773848270636518</v>
       </c>
       <c r="Q12">
-        <v>0.2810090655695556</v>
+        <v>0.1207166354193333</v>
       </c>
       <c r="R12">
-        <v>2.529081590126</v>
+        <v>1.086449718774</v>
       </c>
       <c r="S12">
-        <v>0.0003980184892875808</v>
+        <v>0.001459542935833557</v>
       </c>
       <c r="T12">
-        <v>0.0003980184892875809</v>
+        <v>0.001459542935833556</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>4.032266</v>
       </c>
       <c r="I13">
-        <v>0.04145415829794943</v>
+        <v>0.05261798027253429</v>
       </c>
       <c r="J13">
-        <v>0.04145415829794944</v>
+        <v>0.05261798027253427</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>12.76119166666667</v>
+        <v>0.2968716666666666</v>
       </c>
       <c r="N13">
-        <v>38.283575</v>
+        <v>0.8906149999999999</v>
       </c>
       <c r="O13">
-        <v>0.5860490488575828</v>
+        <v>0.09168794708831841</v>
       </c>
       <c r="P13">
-        <v>0.5860490488575829</v>
+        <v>0.0916879470883184</v>
       </c>
       <c r="Q13">
-        <v>17.15217309232778</v>
+        <v>0.3990218426211111</v>
       </c>
       <c r="R13">
-        <v>154.36955783095</v>
+        <v>3.591196583589999</v>
       </c>
       <c r="S13">
-        <v>0.02429417004170494</v>
+        <v>0.004824434591122306</v>
       </c>
       <c r="T13">
-        <v>0.02429417004170495</v>
+        <v>0.004824434591122304</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.501111666666667</v>
+        <v>2.591152</v>
       </c>
       <c r="H14">
-        <v>16.503335</v>
+        <v>7.773455999999999</v>
       </c>
       <c r="I14">
-        <v>0.1696643677609784</v>
+        <v>0.1014376418761593</v>
       </c>
       <c r="J14">
-        <v>0.1696643677609784</v>
+        <v>0.1014376418761593</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.44358</v>
+        <v>1.299166</v>
       </c>
       <c r="N14">
-        <v>1.33074</v>
+        <v>3.897498000000001</v>
       </c>
       <c r="O14">
-        <v>0.02037110983696637</v>
+        <v>0.4012436242381129</v>
       </c>
       <c r="P14">
-        <v>0.02037110983696637</v>
+        <v>0.4012436242381128</v>
       </c>
       <c r="Q14">
-        <v>2.4401831131</v>
+        <v>3.366336579232</v>
       </c>
       <c r="R14">
-        <v>21.9616480179</v>
+        <v>30.297029213088</v>
       </c>
       <c r="S14">
-        <v>0.003456251471078347</v>
+        <v>0.04070120706055792</v>
       </c>
       <c r="T14">
-        <v>0.003456251471078348</v>
+        <v>0.04070120706055791</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.501111666666667</v>
+        <v>2.591152</v>
       </c>
       <c r="H15">
-        <v>16.503335</v>
+        <v>7.773455999999999</v>
       </c>
       <c r="I15">
-        <v>0.1696643677609784</v>
+        <v>0.1014376418761593</v>
       </c>
       <c r="J15">
-        <v>0.1696643677609784</v>
+        <v>0.1014376418761593</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>2.756006</v>
       </c>
       <c r="O15">
-        <v>0.04218923376267215</v>
+        <v>0.2837281342702381</v>
       </c>
       <c r="P15">
-        <v>0.04218923376267215</v>
+        <v>0.2837281342702381</v>
       </c>
       <c r="Q15">
-        <v>5.053698920001112</v>
+        <v>2.380410152970666</v>
       </c>
       <c r="R15">
-        <v>45.48329028001</v>
+        <v>21.423691376736</v>
       </c>
       <c r="S15">
-        <v>0.007158009672663894</v>
+        <v>0.02878071287429525</v>
       </c>
       <c r="T15">
-        <v>0.007158009672663896</v>
+        <v>0.02878071287429524</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.501111666666667</v>
+        <v>2.591152</v>
       </c>
       <c r="H16">
-        <v>16.503335</v>
+        <v>7.773455999999999</v>
       </c>
       <c r="I16">
-        <v>0.1696643677609784</v>
+        <v>0.1014376418761593</v>
       </c>
       <c r="J16">
-        <v>0.1696643677609784</v>
+        <v>0.1014376418761593</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>6.947936666666666</v>
+        <v>0.09379033333333332</v>
       </c>
       <c r="N16">
-        <v>20.84381</v>
+        <v>0.281371</v>
       </c>
       <c r="O16">
-        <v>0.3190792663712355</v>
+        <v>0.02896687048858063</v>
       </c>
       <c r="P16">
-        <v>0.3190792663712355</v>
+        <v>0.02896687048858063</v>
       </c>
       <c r="Q16">
-        <v>38.22137545626111</v>
+        <v>0.2430250097973333</v>
       </c>
       <c r="R16">
-        <v>343.99237910635</v>
+        <v>2.187225088176</v>
       </c>
       <c r="S16">
-        <v>0.05413638199451249</v>
+        <v>0.002938331034893729</v>
       </c>
       <c r="T16">
-        <v>0.0541363819945125</v>
+        <v>0.002938331034893728</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.501111666666667</v>
+        <v>2.591152</v>
       </c>
       <c r="H17">
-        <v>16.503335</v>
+        <v>7.773455999999999</v>
       </c>
       <c r="I17">
-        <v>0.1696643677609784</v>
+        <v>0.1014376418761593</v>
       </c>
       <c r="J17">
-        <v>0.1696643677609784</v>
+        <v>0.1014376418761593</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4945076666666667</v>
+        <v>0.5395386666666667</v>
       </c>
       <c r="N17">
-        <v>1.483523</v>
+        <v>1.618616</v>
       </c>
       <c r="O17">
-        <v>0.02270992829453226</v>
+        <v>0.1666349412083848</v>
       </c>
       <c r="P17">
-        <v>0.02270992829453226</v>
+        <v>0.1666349412083848</v>
       </c>
       <c r="Q17">
-        <v>2.720341894356111</v>
+        <v>1.398026695210667</v>
       </c>
       <c r="R17">
-        <v>24.483077049205</v>
+        <v>12.582240256896</v>
       </c>
       <c r="S17">
-        <v>0.003853065625988971</v>
+        <v>0.01690305549035099</v>
       </c>
       <c r="T17">
-        <v>0.003853065625988972</v>
+        <v>0.01690305549035099</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.501111666666667</v>
+        <v>2.591152</v>
       </c>
       <c r="H18">
-        <v>16.503335</v>
+        <v>7.773455999999999</v>
       </c>
       <c r="I18">
-        <v>0.1696643677609784</v>
+        <v>0.1014376418761593</v>
       </c>
       <c r="J18">
-        <v>0.1696643677609784</v>
+        <v>0.1014376418761593</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.2090703333333333</v>
+        <v>0.08981299999999999</v>
       </c>
       <c r="N18">
-        <v>0.627211</v>
+        <v>0.269439</v>
       </c>
       <c r="O18">
-        <v>0.009601412877010921</v>
+        <v>0.02773848270636518</v>
       </c>
       <c r="P18">
-        <v>0.009601412877010922</v>
+        <v>0.02773848270636518</v>
       </c>
       <c r="Q18">
-        <v>1.150119249853889</v>
+        <v>0.2327191345759999</v>
       </c>
       <c r="R18">
-        <v>10.351073248685</v>
+        <v>2.094472211184</v>
       </c>
       <c r="S18">
-        <v>0.001629017645390174</v>
+        <v>0.002813726274956308</v>
       </c>
       <c r="T18">
-        <v>0.001629017645390175</v>
+        <v>0.002813726274956308</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.501111666666667</v>
+        <v>2.591152</v>
       </c>
       <c r="H19">
-        <v>16.503335</v>
+        <v>7.773455999999999</v>
       </c>
       <c r="I19">
-        <v>0.1696643677609784</v>
+        <v>0.1014376418761593</v>
       </c>
       <c r="J19">
-        <v>0.1696643677609784</v>
+        <v>0.1014376418761593</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>12.76119166666667</v>
+        <v>0.2968716666666666</v>
       </c>
       <c r="N19">
-        <v>38.283575</v>
+        <v>0.8906149999999999</v>
       </c>
       <c r="O19">
-        <v>0.5860490488575828</v>
+        <v>0.09168794708831841</v>
       </c>
       <c r="P19">
-        <v>0.5860490488575829</v>
+        <v>0.0916879470883184</v>
       </c>
       <c r="Q19">
-        <v>70.20074035806944</v>
+        <v>0.7692396128266665</v>
       </c>
       <c r="R19">
-        <v>631.8066632226249</v>
+        <v>6.923156515439999</v>
       </c>
       <c r="S19">
-        <v>0.09943164135134452</v>
+        <v>0.009300609141105082</v>
       </c>
       <c r="T19">
-        <v>0.09943164135134457</v>
+        <v>0.009300609141105082</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.321922</v>
+        <v>0.128738</v>
       </c>
       <c r="H20">
-        <v>0.9657660000000001</v>
+        <v>0.386214</v>
       </c>
       <c r="I20">
-        <v>0.009928664587796896</v>
+        <v>0.005039796638658401</v>
       </c>
       <c r="J20">
-        <v>0.009928664587796898</v>
+        <v>0.005039796638658401</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.44358</v>
+        <v>1.299166</v>
       </c>
       <c r="N20">
-        <v>1.33074</v>
+        <v>3.897498000000001</v>
       </c>
       <c r="O20">
-        <v>0.02037110983696637</v>
+        <v>0.4012436242381129</v>
       </c>
       <c r="P20">
-        <v>0.02037110983696637</v>
+        <v>0.4012436242381128</v>
       </c>
       <c r="Q20">
-        <v>0.14279816076</v>
+        <v>0.167252032508</v>
       </c>
       <c r="R20">
-        <v>1.28518344684</v>
+        <v>1.505268292572</v>
       </c>
       <c r="S20">
-        <v>0.000202257916852409</v>
+        <v>0.002022186268718356</v>
       </c>
       <c r="T20">
-        <v>0.0002022579168524091</v>
+        <v>0.002022186268718355</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.321922</v>
+        <v>0.128738</v>
       </c>
       <c r="H21">
-        <v>0.9657660000000001</v>
+        <v>0.386214</v>
       </c>
       <c r="I21">
-        <v>0.009928664587796896</v>
+        <v>0.005039796638658401</v>
       </c>
       <c r="J21">
-        <v>0.009928664587796898</v>
+        <v>0.005039796638658401</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>2.756006</v>
       </c>
       <c r="O21">
-        <v>0.04218923376267215</v>
+        <v>0.2837281342702381</v>
       </c>
       <c r="P21">
-        <v>0.04218923376267215</v>
+        <v>0.2837281342702381</v>
       </c>
       <c r="Q21">
-        <v>0.2957396545106667</v>
+        <v>0.1182675668093333</v>
       </c>
       <c r="R21">
-        <v>2.661656890596</v>
+        <v>1.064408101284</v>
       </c>
       <c r="S21">
-        <v>0.0004188827512457281</v>
+        <v>0.001429932097387965</v>
       </c>
       <c r="T21">
-        <v>0.0004188827512457283</v>
+        <v>0.001429932097387965</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.321922</v>
+        <v>0.128738</v>
       </c>
       <c r="H22">
-        <v>0.9657660000000001</v>
+        <v>0.386214</v>
       </c>
       <c r="I22">
-        <v>0.009928664587796896</v>
+        <v>0.005039796638658401</v>
       </c>
       <c r="J22">
-        <v>0.009928664587796898</v>
+        <v>0.005039796638658401</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>6.947936666666666</v>
+        <v>0.09379033333333332</v>
       </c>
       <c r="N22">
-        <v>20.84381</v>
+        <v>0.281371</v>
       </c>
       <c r="O22">
-        <v>0.3190792663712355</v>
+        <v>0.02896687048858063</v>
       </c>
       <c r="P22">
-        <v>0.3190792663712355</v>
+        <v>0.02896687048858063</v>
       </c>
       <c r="Q22">
-        <v>2.236693667606667</v>
+        <v>0.01207437993266666</v>
       </c>
       <c r="R22">
-        <v>20.13024300846</v>
+        <v>0.108669419394</v>
       </c>
       <c r="S22">
-        <v>0.003168031012720299</v>
+        <v>0.0001459871365208019</v>
       </c>
       <c r="T22">
-        <v>0.0031680310127203</v>
+        <v>0.0001459871365208019</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.321922</v>
+        <v>0.128738</v>
       </c>
       <c r="H23">
-        <v>0.9657660000000001</v>
+        <v>0.386214</v>
       </c>
       <c r="I23">
-        <v>0.009928664587796896</v>
+        <v>0.005039796638658401</v>
       </c>
       <c r="J23">
-        <v>0.009928664587796898</v>
+        <v>0.005039796638658401</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.4945076666666667</v>
+        <v>0.5395386666666667</v>
       </c>
       <c r="N23">
-        <v>1.483523</v>
+        <v>1.618616</v>
       </c>
       <c r="O23">
-        <v>0.02270992829453226</v>
+        <v>0.1666349412083848</v>
       </c>
       <c r="P23">
-        <v>0.02270992829453226</v>
+        <v>0.1666349412083848</v>
       </c>
       <c r="Q23">
-        <v>0.1591928970686667</v>
+        <v>0.06945912886933334</v>
       </c>
       <c r="R23">
-        <v>1.432736073618</v>
+        <v>0.6251321598240001</v>
       </c>
       <c r="S23">
-        <v>0.0002254792608493293</v>
+        <v>0.0008398062165850578</v>
       </c>
       <c r="T23">
-        <v>0.0002254792608493293</v>
+        <v>0.0008398062165850577</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.321922</v>
+        <v>0.128738</v>
       </c>
       <c r="H24">
-        <v>0.9657660000000001</v>
+        <v>0.386214</v>
       </c>
       <c r="I24">
-        <v>0.009928664587796896</v>
+        <v>0.005039796638658401</v>
       </c>
       <c r="J24">
-        <v>0.009928664587796898</v>
+        <v>0.005039796638658401</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.2090703333333333</v>
+        <v>0.08981299999999999</v>
       </c>
       <c r="N24">
-        <v>0.627211</v>
+        <v>0.269439</v>
       </c>
       <c r="O24">
-        <v>0.009601412877010921</v>
+        <v>0.02773848270636518</v>
       </c>
       <c r="P24">
-        <v>0.009601412877010922</v>
+        <v>0.02773848270636518</v>
       </c>
       <c r="Q24">
-        <v>0.06730433984733335</v>
+        <v>0.011562345994</v>
       </c>
       <c r="R24">
-        <v>0.6057390586260001</v>
+        <v>0.104061113946</v>
       </c>
       <c r="S24">
-        <v>9.532920802479545E-05</v>
+        <v>0.0001397963119050234</v>
       </c>
       <c r="T24">
-        <v>9.532920802479548E-05</v>
+        <v>0.0001397963119050234</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.321922</v>
+        <v>0.128738</v>
       </c>
       <c r="H25">
-        <v>0.9657660000000001</v>
+        <v>0.386214</v>
       </c>
       <c r="I25">
-        <v>0.009928664587796896</v>
+        <v>0.005039796638658401</v>
       </c>
       <c r="J25">
-        <v>0.009928664587796898</v>
+        <v>0.005039796638658401</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>12.76119166666667</v>
+        <v>0.2968716666666666</v>
       </c>
       <c r="N25">
-        <v>38.283575</v>
+        <v>0.8906149999999999</v>
       </c>
       <c r="O25">
-        <v>0.5860490488575828</v>
+        <v>0.09168794708831841</v>
       </c>
       <c r="P25">
-        <v>0.5860490488575829</v>
+        <v>0.0916879470883184</v>
       </c>
       <c r="Q25">
-        <v>4.108108343716667</v>
+        <v>0.03821866462333333</v>
       </c>
       <c r="R25">
-        <v>36.97297509345</v>
+        <v>0.34396798161</v>
       </c>
       <c r="S25">
-        <v>0.005818684438104336</v>
+        <v>0.0004620886075411964</v>
       </c>
       <c r="T25">
-        <v>0.005818684438104338</v>
+        <v>0.0004620886075411964</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>13.22109733333333</v>
+        <v>16.542033</v>
       </c>
       <c r="H26">
-        <v>39.663292</v>
+        <v>49.626099</v>
       </c>
       <c r="I26">
-        <v>0.4077628770487342</v>
+        <v>0.6475825499073805</v>
       </c>
       <c r="J26">
-        <v>0.4077628770487343</v>
+        <v>0.6475825499073804</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.44358</v>
+        <v>1.299166</v>
       </c>
       <c r="N26">
-        <v>1.33074</v>
+        <v>3.897498000000001</v>
       </c>
       <c r="O26">
-        <v>0.02037110983696637</v>
+        <v>0.4012436242381129</v>
       </c>
       <c r="P26">
-        <v>0.02037110983696637</v>
+        <v>0.4012436242381128</v>
       </c>
       <c r="Q26">
-        <v>5.864614355120001</v>
+        <v>21.490846844478</v>
       </c>
       <c r="R26">
-        <v>52.78152919608</v>
+        <v>193.4176216003021</v>
       </c>
       <c r="S26">
-        <v>0.008306582355797178</v>
+        <v>0.259838369318196</v>
       </c>
       <c r="T26">
-        <v>0.008306582355797182</v>
+        <v>0.2598383693181959</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>13.22109733333333</v>
+        <v>16.542033</v>
       </c>
       <c r="H27">
-        <v>39.663292</v>
+        <v>49.626099</v>
       </c>
       <c r="I27">
-        <v>0.4077628770487342</v>
+        <v>0.6475825499073805</v>
       </c>
       <c r="J27">
-        <v>0.4077628770487343</v>
+        <v>0.6475825499073804</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>2.756006</v>
       </c>
       <c r="O27">
-        <v>0.04218923376267215</v>
+        <v>0.2837281342702381</v>
       </c>
       <c r="P27">
-        <v>0.04218923376267215</v>
+        <v>0.2837281342702381</v>
       </c>
       <c r="Q27">
-        <v>12.14580785908356</v>
+        <v>15.196647400066</v>
       </c>
       <c r="R27">
-        <v>109.312270731752</v>
+        <v>136.769826600594</v>
       </c>
       <c r="S27">
-        <v>0.01720320333954879</v>
+        <v>0.1837373886711844</v>
       </c>
       <c r="T27">
-        <v>0.0172032033395488</v>
+        <v>0.1837373886711844</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>13.22109733333333</v>
+        <v>16.542033</v>
       </c>
       <c r="H28">
-        <v>39.663292</v>
+        <v>49.626099</v>
       </c>
       <c r="I28">
-        <v>0.4077628770487342</v>
+        <v>0.6475825499073805</v>
       </c>
       <c r="J28">
-        <v>0.4077628770487343</v>
+        <v>0.6475825499073804</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>6.947936666666666</v>
+        <v>0.09379033333333332</v>
       </c>
       <c r="N28">
-        <v>20.84381</v>
+        <v>0.281371</v>
       </c>
       <c r="O28">
-        <v>0.3190792663712355</v>
+        <v>0.02896687048858063</v>
       </c>
       <c r="P28">
-        <v>0.3190792663712355</v>
+        <v>0.02896687048858063</v>
       </c>
       <c r="Q28">
-        <v>91.85934693583555</v>
+        <v>1.551482789081</v>
       </c>
       <c r="R28">
-        <v>826.7341224225199</v>
+        <v>13.963345101729</v>
       </c>
       <c r="S28">
-        <v>0.1301086796621344</v>
+        <v>0.0187584398538319</v>
       </c>
       <c r="T28">
-        <v>0.1301086796621345</v>
+        <v>0.01875843985383189</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>13.22109733333333</v>
+        <v>16.542033</v>
       </c>
       <c r="H29">
-        <v>39.663292</v>
+        <v>49.626099</v>
       </c>
       <c r="I29">
-        <v>0.4077628770487342</v>
+        <v>0.6475825499073805</v>
       </c>
       <c r="J29">
-        <v>0.4077628770487343</v>
+        <v>0.6475825499073804</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0.4945076666666667</v>
+        <v>0.5395386666666667</v>
       </c>
       <c r="N29">
-        <v>1.483523</v>
+        <v>1.618616</v>
       </c>
       <c r="O29">
-        <v>0.02270992829453226</v>
+        <v>0.1666349412083848</v>
       </c>
       <c r="P29">
-        <v>0.02270992829453226</v>
+        <v>0.1666349412083848</v>
       </c>
       <c r="Q29">
-        <v>6.537933993079556</v>
+        <v>8.925066428776001</v>
       </c>
       <c r="R29">
-        <v>58.841405937716</v>
+        <v>80.32559785898401</v>
       </c>
       <c r="S29">
-        <v>0.00926026569894893</v>
+        <v>0.1079098801313923</v>
       </c>
       <c r="T29">
-        <v>0.009260265698948932</v>
+        <v>0.1079098801313922</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>13.22109733333333</v>
+        <v>16.542033</v>
       </c>
       <c r="H30">
-        <v>39.663292</v>
+        <v>49.626099</v>
       </c>
       <c r="I30">
-        <v>0.4077628770487342</v>
+        <v>0.6475825499073805</v>
       </c>
       <c r="J30">
-        <v>0.4077628770487343</v>
+        <v>0.6475825499073804</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>0.2090703333333333</v>
+        <v>0.08981299999999999</v>
       </c>
       <c r="N30">
-        <v>0.627211</v>
+        <v>0.269439</v>
       </c>
       <c r="O30">
-        <v>0.009601412877010921</v>
+        <v>0.02773848270636518</v>
       </c>
       <c r="P30">
-        <v>0.009601412877010922</v>
+        <v>0.02773848270636518</v>
       </c>
       <c r="Q30">
-        <v>2.764139226512444</v>
+        <v>1.485689609829</v>
       </c>
       <c r="R30">
-        <v>24.877253038612</v>
+        <v>13.371206488461</v>
       </c>
       <c r="S30">
-        <v>0.003915099738462737</v>
+        <v>0.01796295736154974</v>
       </c>
       <c r="T30">
-        <v>0.003915099738462739</v>
+        <v>0.01796295736154974</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>13.22109733333333</v>
+        <v>16.542033</v>
       </c>
       <c r="H31">
-        <v>39.663292</v>
+        <v>49.626099</v>
       </c>
       <c r="I31">
-        <v>0.4077628770487342</v>
+        <v>0.6475825499073805</v>
       </c>
       <c r="J31">
-        <v>0.4077628770487343</v>
+        <v>0.6475825499073804</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>12.76119166666667</v>
+        <v>0.2968716666666666</v>
       </c>
       <c r="N31">
-        <v>38.283575</v>
+        <v>0.8906149999999999</v>
       </c>
       <c r="O31">
-        <v>0.5860490488575828</v>
+        <v>0.09168794708831841</v>
       </c>
       <c r="P31">
-        <v>0.5860490488575829</v>
+        <v>0.0916879470883184</v>
       </c>
       <c r="Q31">
-        <v>168.7169571143222</v>
+        <v>4.910860906765</v>
       </c>
       <c r="R31">
-        <v>1518.4526140289</v>
+        <v>44.197748160885</v>
       </c>
       <c r="S31">
-        <v>0.2389690462538422</v>
+        <v>0.05937551457122622</v>
       </c>
       <c r="T31">
-        <v>0.2389690462538423</v>
+        <v>0.0593755145712262</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>9.507065666666666</v>
+        <v>1.614436666666667</v>
       </c>
       <c r="H32">
-        <v>28.521197</v>
+        <v>4.84331</v>
       </c>
       <c r="I32">
-        <v>0.293215332342906</v>
+        <v>0.06320148274785642</v>
       </c>
       <c r="J32">
-        <v>0.2932153323429061</v>
+        <v>0.06320148274785641</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.44358</v>
+        <v>1.299166</v>
       </c>
       <c r="N32">
-        <v>1.33074</v>
+        <v>3.897498000000001</v>
       </c>
       <c r="O32">
-        <v>0.02037110983696637</v>
+        <v>0.4012436242381129</v>
       </c>
       <c r="P32">
-        <v>0.02037110983696637</v>
+        <v>0.4012436242381128</v>
       </c>
       <c r="Q32">
-        <v>4.21714418842</v>
+        <v>2.097421226486667</v>
       </c>
       <c r="R32">
-        <v>37.95429769578</v>
+        <v>18.87679103838</v>
       </c>
       <c r="S32">
-        <v>0.005973121741039937</v>
+        <v>0.02535919199497248</v>
       </c>
       <c r="T32">
-        <v>0.005973121741039938</v>
+        <v>0.02535919199497247</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>9.507065666666666</v>
+        <v>1.614436666666667</v>
       </c>
       <c r="H33">
-        <v>28.521197</v>
+        <v>4.84331</v>
       </c>
       <c r="I33">
-        <v>0.293215332342906</v>
+        <v>0.06320148274785642</v>
       </c>
       <c r="J33">
-        <v>0.2932153323429061</v>
+        <v>0.06320148274785641</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>2.756006</v>
       </c>
       <c r="O33">
-        <v>0.04218923376267215</v>
+        <v>0.2837281342702381</v>
       </c>
       <c r="P33">
-        <v>0.04218923376267215</v>
+        <v>0.2837281342702381</v>
       </c>
       <c r="Q33">
-        <v>8.733843339909111</v>
+        <v>1.483132379984444</v>
       </c>
       <c r="R33">
-        <v>78.604590059182</v>
+        <v>13.34819141986</v>
       </c>
       <c r="S33">
-        <v>0.01237053019901447</v>
+        <v>0.01793203878316195</v>
       </c>
       <c r="T33">
-        <v>0.01237053019901447</v>
+        <v>0.01793203878316194</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>9.507065666666666</v>
+        <v>1.614436666666667</v>
       </c>
       <c r="H34">
-        <v>28.521197</v>
+        <v>4.84331</v>
       </c>
       <c r="I34">
-        <v>0.293215332342906</v>
+        <v>0.06320148274785642</v>
       </c>
       <c r="J34">
-        <v>0.2932153323429061</v>
+        <v>0.06320148274785641</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M34">
-        <v>6.947936666666666</v>
+        <v>0.09379033333333332</v>
       </c>
       <c r="N34">
-        <v>20.84381</v>
+        <v>0.281371</v>
       </c>
       <c r="O34">
-        <v>0.3190792663712355</v>
+        <v>0.02896687048858063</v>
       </c>
       <c r="P34">
-        <v>0.3190792663712355</v>
+        <v>0.02896687048858063</v>
       </c>
       <c r="Q34">
-        <v>66.0544901378411</v>
+        <v>0.1514185531122222</v>
       </c>
       <c r="R34">
-        <v>594.4904112405699</v>
+        <v>1.36276697801</v>
       </c>
       <c r="S34">
-        <v>0.09355893313277246</v>
+        <v>0.00183074916544342</v>
       </c>
       <c r="T34">
-        <v>0.09355893313277248</v>
+        <v>0.001830749165443419</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,46 +2589,46 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>9.507065666666666</v>
+        <v>1.614436666666667</v>
       </c>
       <c r="H35">
-        <v>28.521197</v>
+        <v>4.84331</v>
       </c>
       <c r="I35">
-        <v>0.293215332342906</v>
+        <v>0.06320148274785642</v>
       </c>
       <c r="J35">
-        <v>0.2932153323429061</v>
+        <v>0.06320148274785641</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L35">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>0.4945076666666667</v>
+        <v>0.5395386666666667</v>
       </c>
       <c r="N35">
-        <v>1.483523</v>
+        <v>1.618616</v>
       </c>
       <c r="O35">
-        <v>0.02270992829453226</v>
+        <v>0.1666349412083848</v>
       </c>
       <c r="P35">
-        <v>0.02270992829453226</v>
+        <v>0.1666349412083848</v>
       </c>
       <c r="Q35">
-        <v>4.701316859670111</v>
+        <v>0.8710510065511111</v>
       </c>
       <c r="R35">
-        <v>42.311851737031</v>
+        <v>7.83945905896</v>
       </c>
       <c r="S35">
-        <v>0.006658899172364843</v>
+        <v>0.0105315753619718</v>
       </c>
       <c r="T35">
-        <v>0.006658899172364844</v>
+        <v>0.0105315753619718</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,46 +2651,46 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>9.507065666666666</v>
+        <v>1.614436666666667</v>
       </c>
       <c r="H36">
-        <v>28.521197</v>
+        <v>4.84331</v>
       </c>
       <c r="I36">
-        <v>0.293215332342906</v>
+        <v>0.06320148274785642</v>
       </c>
       <c r="J36">
-        <v>0.2932153323429061</v>
+        <v>0.06320148274785641</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M36">
-        <v>0.2090703333333333</v>
+        <v>0.08981299999999999</v>
       </c>
       <c r="N36">
-        <v>0.627211</v>
+        <v>0.269439</v>
       </c>
       <c r="O36">
-        <v>0.009601412877010921</v>
+        <v>0.02773848270636518</v>
       </c>
       <c r="P36">
-        <v>0.009601412877010922</v>
+        <v>0.02773848270636518</v>
       </c>
       <c r="Q36">
-        <v>1.987645387951889</v>
+        <v>0.1449974003433333</v>
       </c>
       <c r="R36">
-        <v>17.888808491567</v>
+        <v>1.30497660309</v>
       </c>
       <c r="S36">
-        <v>0.002815281467694215</v>
+        <v>0.001753113236218053</v>
       </c>
       <c r="T36">
-        <v>0.002815281467694216</v>
+        <v>0.001753113236218052</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>9.507065666666666</v>
+        <v>1.614436666666667</v>
       </c>
       <c r="H37">
-        <v>28.521197</v>
+        <v>4.84331</v>
       </c>
       <c r="I37">
-        <v>0.293215332342906</v>
+        <v>0.06320148274785642</v>
       </c>
       <c r="J37">
-        <v>0.2932153323429061</v>
+        <v>0.06320148274785641</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M37">
-        <v>12.76119166666667</v>
+        <v>0.2968716666666666</v>
       </c>
       <c r="N37">
-        <v>38.283575</v>
+        <v>0.8906149999999999</v>
       </c>
       <c r="O37">
-        <v>0.5860490488575828</v>
+        <v>0.09168794708831841</v>
       </c>
       <c r="P37">
-        <v>0.5860490488575829</v>
+        <v>0.0916879470883184</v>
       </c>
       <c r="Q37">
-        <v>121.3214871599194</v>
+        <v>0.479280503961111</v>
       </c>
       <c r="R37">
-        <v>1091.893384439275</v>
+        <v>4.313524535649999</v>
       </c>
       <c r="S37">
-        <v>0.1718385666300201</v>
+        <v>0.005794814206088728</v>
       </c>
       <c r="T37">
-        <v>0.1718385666300202</v>
+        <v>0.005794814206088727</v>
       </c>
     </row>
   </sheetData>
